--- a/public/sample_uploads/capital_commitments_multi_currency_1.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency_1.xlsx
@@ -78,7 +78,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
   <si>
-    <t xml:space="preserve">Investor *</t>
+    <t xml:space="preserve">Stakeholder *</t>
   </si>
   <si>
     <t xml:space="preserve">Fund *</t>
@@ -578,8 +578,8 @@
   </sheetPr>
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/sample_uploads/capital_commitments_multi_currency_1.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency_1.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="52">
   <si>
     <t xml:space="preserve">Stakeholder *</t>
   </si>
@@ -141,6 +141,9 @@
     <t xml:space="preserve">CF 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Form Tag</t>
+  </si>
+  <si>
     <t xml:space="preserve">Investor 1</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
   </si>
   <si>
     <t xml:space="preserve">Investor 2</t>
@@ -347,7 +353,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,6 +367,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,10 +586,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -658,487 +668,520 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
+      <c r="A2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <v>22500</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>27</v>
+      <c r="P2" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="V2" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>32</v>
+      <c r="A3" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>1800000</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="9"/>
       <c r="R3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U3" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="V3" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>34</v>
+      <c r="A4" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>2800000</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="8"/>
+      <c r="K4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="9"/>
       <c r="R4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U4" s="1" t="n">
         <v>300</v>
       </c>
+      <c r="V4" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
+      <c r="A5" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>15000</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>36</v>
+      <c r="K5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>27</v>
+      <c r="P5" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U5" s="1" t="n">
         <v>400</v>
       </c>
+      <c r="V5" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
+      <c r="A6" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>3000000</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>29</v>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="9"/>
       <c r="R6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U6" s="1" t="n">
         <v>500</v>
       </c>
+      <c r="V6" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
+      <c r="A7" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>1000000</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="8"/>
+      <c r="P7" s="9"/>
       <c r="R7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U7" s="1" t="n">
         <v>600</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="n">
         <v>3000000</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="8"/>
+      <c r="K8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="9"/>
       <c r="R8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U8" s="1" t="n">
         <v>700</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="n">
         <v>3000000</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="8"/>
+      <c r="K9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="9"/>
       <c r="R9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="U9" s="1" t="n">
         <v>800</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>3000000</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="8"/>
+      <c r="K10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="9"/>
       <c r="R10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="U10" s="1" t="n">
         <v>800</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="n">
         <v>4000000</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>55</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="8"/>
+      <c r="K11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="9"/>
       <c r="R11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S11" s="1" t="n">
         <v>8</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="U11" s="1" t="n">
         <v>800</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
